--- a/data/site_coords.xlsx
+++ b/data/site_coords.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Uni\Year 4\Research Project\Analysis\Drosophila_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{091A26C1-D9A8-4CA7-BF35-D67EB99E7685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{20D9B8A1-3119-483E-9C28-E9CC97AE6B84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{BC04B28D-2409-410C-AA35-00E3B8F52FF9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="site_coords" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -435,7 +435,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>50.170239000000002</v>
+        <v>50.16986</v>
       </c>
       <c r="C10">
         <v>-5.1225709999999998</v>
@@ -573,10 +573,10 @@
         <v>13</v>
       </c>
       <c r="B12">
-        <v>50.170780000000001</v>
+        <v>50.17089</v>
       </c>
       <c r="C12">
-        <v>-5.1204200000000002</v>
+        <v>-5.1204510000000001</v>
       </c>
     </row>
   </sheetData>
